--- a/Mypaper/tables/4.5风险因素概率统计分析.xlsx
+++ b/Mypaper/tables/4.5风险因素概率统计分析.xlsx
@@ -37,13 +37,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>需求不明确风险因素R</t>
     </r>
     <r>
@@ -70,13 +63,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>需求蔓延风险因素R</t>
     </r>
     <r>
@@ -103,13 +89,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>需求持续变更风险因素R</t>
     </r>
     <r>
@@ -727,6 +706,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>中国Android被取消授权风险因素R</t>
     </r>
     <r>
@@ -813,8 +799,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -852,52 +838,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -906,16 +846,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,9 +870,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,8 +930,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,20 +963,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,13 +1000,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,169 +1054,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,15 +1209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1243,6 +1220,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,35 +1265,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,10 +1314,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1340,16 +1326,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1358,115 +1344,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,14 +1823,17 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F25"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="38.075" customWidth="1"/>
+    <col min="2" max="2" width="7.01666666666667" customWidth="1"/>
+    <col min="3" max="3" width="4.80833333333333" customWidth="1"/>
+    <col min="4" max="4" width="4.9" customWidth="1"/>
+    <col min="5" max="5" width="3.84166666666667" customWidth="1"/>
+    <col min="6" max="6" width="5.95833333333333" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="12.625"/>
   </cols>
@@ -1892,15 +1881,15 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f>SUM(B2:F2)</f>
+        <f t="shared" ref="G2:G24" si="0">SUM(B2:F2)</f>
         <v>242</v>
       </c>
       <c r="H2">
-        <f>SUM(B2*0.9,C2*0.7,D2*0.5,E2*0.3,F2*0.1)</f>
+        <f t="shared" ref="H2:H24" si="1">SUM(B2*0.9,C2*0.7,D2*0.5,E2*0.3,F2*0.1)</f>
         <v>210</v>
       </c>
       <c r="I2">
-        <f>AVERAGE(H2/242)</f>
+        <f t="shared" ref="I2:I24" si="2">AVERAGE(H2/242)</f>
         <v>0.867768595041322</v>
       </c>
       <c r="J2">
@@ -1927,15 +1916,15 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <f>SUM(B3:F3)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H3">
-        <f>SUM(B3*0.9,C3*0.7,D3*0.5,E3*0.3,F3*0.1)</f>
+        <f t="shared" si="1"/>
         <v>181.6</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(H3/242)</f>
+        <f t="shared" si="2"/>
         <v>0.750413223140496</v>
       </c>
       <c r="J3">
@@ -1962,15 +1951,15 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <f>SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H4">
-        <f>SUM(B4*0.9,C4*0.7,D4*0.5,E4*0.3,F4*0.1)</f>
+        <f t="shared" si="1"/>
         <v>193.6</v>
       </c>
       <c r="I4">
-        <f>AVERAGE(H4/242)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J4">
@@ -1997,15 +1986,15 @@
         <v>21</v>
       </c>
       <c r="G5">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H5">
-        <f>SUM(B5*0.9,C5*0.7,D5*0.5,E5*0.3,F5*0.1)</f>
+        <f t="shared" si="1"/>
         <v>85.2</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(H5/242)</f>
+        <f t="shared" si="2"/>
         <v>0.352066115702479</v>
       </c>
       <c r="J5">
@@ -2032,15 +2021,15 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H6">
-        <f>SUM(B6*0.9,C6*0.7,D6*0.5,E6*0.3,F6*0.1)</f>
+        <f t="shared" si="1"/>
         <v>94.6</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(H6/242)</f>
+        <f t="shared" si="2"/>
         <v>0.390909090909091</v>
       </c>
       <c r="J6">
@@ -2067,15 +2056,15 @@
         <v>102</v>
       </c>
       <c r="G7">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H7">
-        <f>SUM(B7*0.9,C7*0.7,D7*0.5,E7*0.3,F7*0.1)</f>
+        <f t="shared" si="1"/>
         <v>63.6</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(H7/242)</f>
+        <f t="shared" si="2"/>
         <v>0.262809917355372</v>
       </c>
       <c r="J7">
@@ -2102,15 +2091,15 @@
         <v>88</v>
       </c>
       <c r="G8">
-        <f>SUM(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H8">
-        <f>SUM(B8*0.9,C8*0.7,D8*0.5,E8*0.3,F8*0.1)</f>
+        <f t="shared" si="1"/>
         <v>66.2</v>
       </c>
       <c r="I8">
-        <f>AVERAGE(H8/242)</f>
+        <f t="shared" si="2"/>
         <v>0.273553719008264</v>
       </c>
       <c r="J8">
@@ -2137,15 +2126,15 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <f>SUM(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H9">
-        <f>SUM(B9*0.9,C9*0.7,D9*0.5,E9*0.3,F9*0.1)</f>
+        <f t="shared" si="1"/>
         <v>193.6</v>
       </c>
       <c r="I9">
-        <f>AVERAGE(H9/242)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J9">
@@ -2172,15 +2161,15 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>SUM(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H10">
-        <f>SUM(B10*0.9,C10*0.7,D10*0.5,E10*0.3,F10*0.1)</f>
+        <f t="shared" si="1"/>
         <v>132.6</v>
       </c>
       <c r="I10">
-        <f>AVERAGE(H10/242)</f>
+        <f t="shared" si="2"/>
         <v>0.547933884297521</v>
       </c>
       <c r="J10">
@@ -2207,15 +2196,15 @@
         <v>12</v>
       </c>
       <c r="G11">
-        <f>SUM(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H11">
-        <f>SUM(B11*0.9,C11*0.7,D11*0.5,E11*0.3,F11*0.1)</f>
+        <f t="shared" si="1"/>
         <v>141.8</v>
       </c>
       <c r="I11">
-        <f>AVERAGE(H11/242)</f>
+        <f t="shared" si="2"/>
         <v>0.58595041322314</v>
       </c>
       <c r="J11">
@@ -2242,15 +2231,15 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <f>SUM(B12:F12)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H12">
-        <f>SUM(B12*0.9,C12*0.7,D12*0.5,E12*0.3,F12*0.1)</f>
+        <f t="shared" si="1"/>
         <v>153.8</v>
       </c>
       <c r="I12">
-        <f>AVERAGE(H12/242)</f>
+        <f t="shared" si="2"/>
         <v>0.635537190082645</v>
       </c>
       <c r="J12">
@@ -2277,15 +2266,15 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>SUM(B13:F13)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H13">
-        <f>SUM(B13*0.9,C13*0.7,D13*0.5,E13*0.3,F13*0.1)</f>
+        <f t="shared" si="1"/>
         <v>213.2</v>
       </c>
       <c r="I13">
-        <f>AVERAGE(H13/242)</f>
+        <f t="shared" si="2"/>
         <v>0.88099173553719</v>
       </c>
       <c r="J13">
@@ -2312,15 +2301,15 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <f>SUM(B14:F14)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H14">
-        <f>SUM(B14*0.9,C14*0.7,D14*0.5,E14*0.3,F14*0.1)</f>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="I14">
-        <f>AVERAGE(H14/242)</f>
+        <f t="shared" si="2"/>
         <v>0.549586776859504</v>
       </c>
       <c r="J14">
@@ -2347,15 +2336,15 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <f>SUM(B15:F15)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H15">
-        <f>SUM(B15*0.9,C15*0.7,D15*0.5,E15*0.3,F15*0.1)</f>
+        <f t="shared" si="1"/>
         <v>195.4</v>
       </c>
       <c r="I15">
-        <f>AVERAGE(H15/242)</f>
+        <f t="shared" si="2"/>
         <v>0.807438016528926</v>
       </c>
       <c r="J15">
@@ -2382,15 +2371,15 @@
         <v>12</v>
       </c>
       <c r="G16">
-        <f>SUM(B16:F16)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H16">
-        <f>SUM(B16*0.9,C16*0.7,D16*0.5,E16*0.3,F16*0.1)</f>
+        <f t="shared" si="1"/>
         <v>122.4</v>
       </c>
       <c r="I16">
-        <f>AVERAGE(H16/242)</f>
+        <f t="shared" si="2"/>
         <v>0.505785123966942</v>
       </c>
       <c r="J16">
@@ -2417,15 +2406,15 @@
         <v>43</v>
       </c>
       <c r="G17">
-        <f>SUM(B17:F17)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H17">
-        <f>SUM(B17*0.9,C17*0.7,D17*0.5,E17*0.3,F17*0.1)</f>
+        <f t="shared" si="1"/>
         <v>80.4</v>
       </c>
       <c r="I17">
-        <f>AVERAGE(H17/242)</f>
+        <f t="shared" si="2"/>
         <v>0.332231404958678</v>
       </c>
       <c r="J17">
@@ -2452,15 +2441,15 @@
         <v>53</v>
       </c>
       <c r="G18">
-        <f>SUM(B18:F18)</f>
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
       <c r="H18">
-        <f>SUM(B18*0.9,C18*0.7,D18*0.5,E18*0.3,F18*0.1)</f>
+        <f t="shared" si="1"/>
         <v>76.9</v>
       </c>
       <c r="I18">
-        <f>AVERAGE(H18/242)</f>
+        <f t="shared" si="2"/>
         <v>0.317768595041322</v>
       </c>
       <c r="J18">
@@ -2487,15 +2476,15 @@
         <v>66</v>
       </c>
       <c r="G19">
-        <f>SUM(B19:F19)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H19">
-        <f>SUM(B19*0.9,C19*0.7,D19*0.5,E19*0.3,F19*0.1)</f>
+        <f t="shared" si="1"/>
         <v>78.4</v>
       </c>
       <c r="I19">
-        <f>AVERAGE(H19/242)</f>
+        <f t="shared" si="2"/>
         <v>0.32396694214876</v>
       </c>
       <c r="J19">
@@ -2522,15 +2511,15 @@
         <v>21</v>
       </c>
       <c r="G20">
-        <f>SUM(B20:F20)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H20">
-        <f>SUM(B20*0.9,C20*0.7,D20*0.5,E20*0.3,F20*0.1)</f>
+        <f t="shared" si="1"/>
         <v>113.6</v>
       </c>
       <c r="I20">
-        <f>AVERAGE(H20/242)</f>
+        <f t="shared" si="2"/>
         <v>0.469421487603306</v>
       </c>
       <c r="J20">
@@ -2557,15 +2546,15 @@
         <v>70</v>
       </c>
       <c r="G21">
-        <f>SUM(B21:F21)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H21">
-        <f>SUM(B21*0.9,C21*0.7,D21*0.5,E21*0.3,F21*0.1)</f>
+        <f t="shared" si="1"/>
         <v>83.2</v>
       </c>
       <c r="I21">
-        <f>AVERAGE(H21/242)</f>
+        <f t="shared" si="2"/>
         <v>0.343801652892562</v>
       </c>
       <c r="J21">
@@ -2592,15 +2581,15 @@
         <v>111</v>
       </c>
       <c r="G22">
-        <f>SUM(B22:F22)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="H22">
-        <f>SUM(B22*0.9,C22*0.7,D22*0.5,E22*0.3,F22*0.1)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(H22/242)</f>
+        <f t="shared" si="2"/>
         <v>0.272727272727273</v>
       </c>
       <c r="J22">
@@ -2627,15 +2616,15 @@
         <v>216</v>
       </c>
       <c r="G23">
-        <f>SUM(B23:F23)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H23">
-        <f>SUM(B23*0.9,C23*0.7,D23*0.5,E23*0.3,F23*0.1)</f>
+        <f t="shared" si="1"/>
         <v>30.2</v>
       </c>
       <c r="I23">
-        <f>AVERAGE(H23/242)</f>
+        <f t="shared" si="2"/>
         <v>0.124793388429752</v>
       </c>
       <c r="J23">
@@ -2646,7 +2635,9 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -2660,15 +2651,15 @@
         <v>179</v>
       </c>
       <c r="G24">
-        <f>SUM(B24:F24)</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="H24">
-        <f>SUM(B24*0.9,C24*0.7,D24*0.5,E24*0.3,F24*0.1)</f>
+        <f t="shared" si="1"/>
         <v>40.6</v>
       </c>
       <c r="I24">
-        <f>AVERAGE(H24/242)</f>
+        <f t="shared" si="2"/>
         <v>0.167768595041322</v>
       </c>
       <c r="J24">

--- a/Mypaper/tables/4.5风险因素概率统计分析.xlsx
+++ b/Mypaper/tables/4.5风险因素概率统计分析.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\Mypaper\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D140BE-2A2E-489A-B561-928FBFBE2C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,6 +61,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -55,6 +72,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -71,6 +89,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -81,6 +100,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -97,6 +117,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,6 +128,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,6 +141,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +153,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +164,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -152,6 +177,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,6 +189,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,6 +200,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -185,6 +213,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,6 +225,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,6 +236,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,6 +249,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开发语言的选择风险因素R</t>
@@ -228,6 +260,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
@@ -237,6 +270,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>样本数量</t>
@@ -248,6 +282,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -259,6 +294,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,6 +305,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,6 +318,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,6 +330,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,6 +341,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,6 +354,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,6 +366,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,6 +377,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -347,6 +390,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -358,6 +402,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,6 +413,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -380,6 +426,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -391,6 +438,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -401,6 +449,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,6 +462,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -424,6 +474,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -434,6 +485,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -446,6 +498,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,6 +510,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -467,6 +521,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,6 +534,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,6 +546,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,6 +557,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -512,6 +570,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -523,6 +582,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +593,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -545,6 +606,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -556,6 +618,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -566,6 +629,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,6 +642,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,6 +654,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -599,6 +665,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -611,6 +678,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -622,6 +690,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -632,6 +701,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -644,6 +714,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -655,6 +726,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -665,6 +737,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +750,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,6 +762,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,6 +773,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -710,6 +786,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -721,6 +798,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -731,6 +809,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,6 +822,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -754,6 +834,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,6 +845,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -795,14 +877,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +890,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -821,150 +898,15 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -972,6 +914,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -980,6 +923,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -988,204 +932,26 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1200,263 +966,177 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,68 +1146,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1814,70 +1483,70 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.075" customWidth="1"/>
-    <col min="2" max="2" width="7.01666666666667" customWidth="1"/>
-    <col min="3" max="3" width="4.80833333333333" customWidth="1"/>
-    <col min="4" max="4" width="4.9" customWidth="1"/>
-    <col min="5" max="5" width="3.84166666666667" customWidth="1"/>
-    <col min="6" max="6" width="5.95833333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="4.875" customWidth="1"/>
+    <col min="5" max="5" width="3.875" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:10">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="11">
         <v>219</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="11">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
         <v>1</v>
       </c>
       <c r="G2">
@@ -1890,29 +1559,29 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I24" si="2">AVERAGE(H2/242)</f>
-        <v>0.867768595041322</v>
+        <v>0.86776859504132231</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:10">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>123</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>80</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>21</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
       <c r="G3">
@@ -1925,29 +1594,29 @@
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>0.750413223140496</v>
+        <v>0.75041322314049586</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>178</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>28</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
       <c r="G4">
@@ -1956,7 +1625,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>193.6</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
@@ -1966,23 +1635,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>34</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>165</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>21</v>
       </c>
       <c r="G5">
@@ -1991,33 +1660,33 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>85.2</v>
+        <v>85.199999999999989</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.352066115702479</v>
+        <v>0.35206611570247931</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>52</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>148</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>12</v>
       </c>
       <c r="G6">
@@ -2026,33 +1695,33 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>94.6</v>
+        <v>94.600000000000009</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.390909090909091</v>
+        <v>0.39090909090909093</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>38</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>93</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>102</v>
       </c>
       <c r="G7">
@@ -2065,29 +1734,29 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.262809917355372</v>
+        <v>0.2628099173553719</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>28</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>113</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>88</v>
       </c>
       <c r="G8">
@@ -2100,29 +1769,29 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.273553719008264</v>
+        <v>0.27355371900826447</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>167</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>43</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>21</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>3</v>
       </c>
       <c r="G9">
@@ -2131,7 +1800,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>193.6</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -2141,23 +1810,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>55</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>123</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>39</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10">
@@ -2170,29 +1839,29 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0.547933884297521</v>
+        <v>0.54793388429752066</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>47</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>67</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>83</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>33</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>12</v>
       </c>
       <c r="G11">
@@ -2201,33 +1870,33 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>141.8</v>
+        <v>141.79999999999998</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>0.58595041322314</v>
+        <v>0.58595041322314045</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>56</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>92</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>63</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>22</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>9</v>
       </c>
       <c r="G12">
@@ -2236,33 +1905,33 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>153.8</v>
+        <v>153.79999999999998</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.635537190082645</v>
+        <v>0.63553719008264453</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>228</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
       <c r="G13">
@@ -2271,33 +1940,33 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>213.2</v>
+        <v>213.20000000000002</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.88099173553719</v>
+        <v>0.88099173553719012</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>35</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>63</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>81</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>53</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>10</v>
       </c>
       <c r="G14">
@@ -2310,29 +1979,29 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0.549586776859504</v>
+        <v>0.54958677685950408</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>161</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>57</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>19</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15">
@@ -2345,29 +2014,29 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0.807438016528926</v>
+        <v>0.80743801652892566</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:10">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>56</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>89</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>65</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>12</v>
       </c>
       <c r="G16">
@@ -2376,33 +2045,33 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>122.4</v>
+        <v>122.39999999999999</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>0.505785123966942</v>
+        <v>0.50578512396694209</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:10">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>42</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>139</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>43</v>
       </c>
       <c r="G17">
@@ -2411,33 +2080,33 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>80.4</v>
+        <v>80.399999999999991</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>0.332231404958678</v>
+        <v>0.33223140495867765</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:10">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>8</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>48</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>128</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>53</v>
       </c>
       <c r="G18">
@@ -2446,33 +2115,33 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>76.9</v>
+        <v>76.899999999999991</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>0.317768595041322</v>
+        <v>0.31776859504132227</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>16</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>48</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>107</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>66</v>
       </c>
       <c r="G19">
@@ -2481,33 +2150,33 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>0.32396694214876</v>
+        <v>0.32396694214876037</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>42</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>97</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>67</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>21</v>
       </c>
       <c r="G20">
@@ -2520,29 +2189,29 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>0.469421487603306</v>
+        <v>0.46942148760330576</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>12</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>59</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>87</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>70</v>
       </c>
       <c r="G21">
@@ -2555,29 +2224,29 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>0.343801652892562</v>
+        <v>0.34380165289256198</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>11</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>35</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>75</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>111</v>
       </c>
       <c r="G22">
@@ -2590,29 +2259,29 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>0.272727272727273</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>0</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>22</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>216</v>
       </c>
       <c r="G23">
@@ -2621,33 +2290,33 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>30.2</v>
+        <v>30.200000000000003</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0.124793388429752</v>
+        <v>0.12479338842975207</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:10">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>0</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="8">
         <v>17</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="8">
         <v>45</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="9">
         <v>179</v>
       </c>
       <c r="G24">
@@ -2660,13 +2329,13 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.167768595041322</v>
+        <v>0.16776859504132233</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -2690,45 +2359,39 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:J25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J25">
     <sortCondition ref="J3"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>